--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2718.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2718.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166878013140855</v>
+        <v>1.533148169517517</v>
       </c>
       <c r="B1">
-        <v>2.402065157568384</v>
+        <v>3.599210977554321</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.096096277236938</v>
       </c>
       <c r="D1">
-        <v>2.357790766463943</v>
+        <v>0.5287325978279114</v>
       </c>
       <c r="E1">
-        <v>1.213520779696591</v>
+        <v>0.8420922756195068</v>
       </c>
     </row>
   </sheetData>
